--- a/biology/Médecine/Hôpital_Saint-Sauveur/Hôpital_Saint-Sauveur.xlsx
+++ b/biology/Médecine/Hôpital_Saint-Sauveur/Hôpital_Saint-Sauveur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Sauveur</t>
+          <t>Hôpital_Saint-Sauveur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital Saint-Sauveur est un ancien hôpital de Lille, dans le département du Nord, en France. Le pavillon, dernier vestige de l'hôpital, a été classé monument historique en 1923 et 1962[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital Saint-Sauveur est un ancien hôpital de Lille, dans le département du Nord, en France. Le pavillon, dernier vestige de l'hôpital, a été classé monument historique en 1923 et 1962.
 Ce site est desservi par les stations de métro Lille Grand Palais et Mairie de Lille.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Sauveur</t>
+          <t>Hôpital_Saint-Sauveur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chanoine de la Collégiale Saint-Pierre, Jean Martin, fonde un asile de six lits pour les malades pauvres. Il sera détruit en 1213 lors  de l'incendie du siège de Lille par Philippe Auguste.
 En 1215, cet asile renaît grâce à la générosité de Jeanne de Constantinople qui fonde l'hôpital Saint-Sauveur en bordure sud des remparts de Lille. Il abrite seulement huit lits. En 1219, attenant à l'hôpital, un oratoire est construit pour les religieuses Augustines chargées de l'accueil et des soins. C'était la construction religieuse la plus ancienne de Lille jusqu'à sa destruction en 1960. Après 1393, elles font bâtir la chapelle principale dans l'axe de la salle des malades, à son extrémité orientale.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Sauveur</t>
+          <t>Hôpital_Saint-Sauveur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Architecture du pavillon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la démolition de l'hôpital, un seul des quatre côtés de la cour d'honneur est conservé. Connue sous le nom de pavillon Saint-Sauveur, la partie préservée est un bâtiment du XVIIe siècle en brique et en pierre à trois niveaux. Au rez-de-chaussée, il reste une galerie de cloître aux voûtes en brique qui donnait sur la cour d'honneur par six arcades. À l'intérieur, se trouve une porte ornée d'anges et de cartouches. Au premier étage, la façade est rythmée par des pilastres en pierres de Lezennes surmontés de chapiteaux ioniques et de cartouches, et par des grandes fenêtres aux encadrements de pierre, rehaussées par des guirlandes et des oculi tressés de feuilles.
 </t>
